--- a/assets/files/excel/2411.xlsx
+++ b/assets/files/excel/2411.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="cEsaPz/w24aJ7XNu6GfqEWKwnlv2RqqLWSKEqlYB5ITRDJtTSoE1iqdYIszGVJwpMyeuuwePOXwmPmPne4VWBA==" workbookSaltValue="WmxSZw2s00+2CtiJaYJF1g==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="xO9fl6R1wUs4FHTDGuPd8Q5poKSfbBb0j6Je6JzniUhkDOnDL3dX0xuetdO40e8nuTVcMyyyMa1uJ5UqsGCF+A==" workbookSaltValue="RDy3B5txIUTwWLlz3jcAew==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,7 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -402,12 +401,44 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -770,9 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -799,20 +828,20 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -838,121 +867,121 @@
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="14">
         <v>5</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>9</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>11</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="6">
         <v>12</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="6">
         <v>14</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="6">
         <v>15</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="6">
         <v>16</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="6">
         <v>17</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="6">
         <v>18</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="6">
         <v>19</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="7">
         <v>20</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="22"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="4cbPakBwG7viYhcqZ1aeJttn86OWHb6HQr13nrlVLrVX9DnSpny0e3CMK1mNNLWF9Ovj/yukL+UzFUHRqHJxew==" saltValue="gnKA0g3qcDnlESB+V2h2UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -969,7 +998,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,12 +1023,12 @@
     <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1031,12 +1060,12 @@
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="29">
         <f t="shared" ref="D7:D14" si="0">(C7-1)*$B$7+$A$7*C7</f>
         <v>2600</v>
       </c>
       <c r="E7" t="str">
-        <f>IFERROR(IF('Выкопать колодец'!D7='Выкопать колодец (решение)'!D7,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Выкопать колодец'!D7-'Выкопать колодец (решение)'!D7)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1071,12 +1100,12 @@
       <c r="C11" s="14">
         <v>5</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="28">
         <f t="shared" si="0"/>
         <v>19400</v>
       </c>
       <c r="E11" t="str">
-        <f>IFERROR(IF('Выкопать колодец'!D11='Выкопать колодец (решение)'!D11,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Выкопать колодец'!D11-'Выкопать колодец (решение)'!D11)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1116,7 +1145,7 @@
         <v>36200</v>
       </c>
       <c r="E15" t="str">
-        <f>IFERROR(IF('Выкопать колодец'!D15='Выкопать колодец (решение)'!D15,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Выкопать колодец'!D15-'Выкопать колодец (решение)'!D15)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1138,7 +1167,7 @@
         <v>44600</v>
       </c>
       <c r="E17" t="str">
-        <f>IFERROR(IF('Выкопать колодец'!D17='Выкопать колодец (решение)'!D17,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Выкопать колодец'!D17-'Выкопать колодец (решение)'!D17)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1228,33 +1257,33 @@
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"верно"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"верно"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"решена"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"верно"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"верно"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"верно"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"верно"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"решена"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
